--- a/excel/template-journal02.xlsx
+++ b/excel/template-journal02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70724\Desktop\新建文件夹 (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70724\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A31D093-EB41-439B-AC69-FC901EFC4A33}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8E7FC6-8E0C-4D85-BFEA-FE03A5920E6C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="450" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,6 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -669,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IW127"/>
+  <dimension ref="A1:IW128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="DE14" sqref="DE14"/>
+      <selection activeCell="S133" sqref="S133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1514,110 +1513,12 @@
       <c r="CR8" s="11"/>
       <c r="CS8" s="11"/>
     </row>
-    <row r="9" spans="1:104" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:104" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+    <row r="9" spans="1:104" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:104" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:104" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="9"/>
-      <c r="AV10" s="9"/>
-      <c r="AW10" s="9"/>
-      <c r="AX10" s="9"/>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="9"/>
-      <c r="BA10" s="9"/>
-      <c r="BB10" s="9"/>
-      <c r="BC10" s="9"/>
-      <c r="BD10" s="9"/>
-      <c r="BE10" s="9"/>
-      <c r="BF10" s="9"/>
-      <c r="BG10" s="9"/>
-      <c r="BH10" s="9"/>
-      <c r="BI10" s="9"/>
-      <c r="BJ10" s="9"/>
-      <c r="BK10" s="9"/>
-      <c r="BL10" s="9"/>
-      <c r="BM10" s="9"/>
-      <c r="BN10" s="9"/>
-      <c r="BO10" s="9"/>
-      <c r="BP10" s="9"/>
-      <c r="BQ10" s="9"/>
-      <c r="BR10" s="9"/>
-      <c r="BS10" s="9"/>
-      <c r="BT10" s="9"/>
-      <c r="BU10" s="9"/>
-      <c r="BV10" s="9"/>
-      <c r="BW10" s="9"/>
-      <c r="BX10" s="9"/>
-      <c r="BY10" s="9"/>
-      <c r="BZ10" s="9"/>
-      <c r="CA10" s="9"/>
-      <c r="CB10" s="9"/>
-      <c r="CC10" s="9"/>
-      <c r="CD10" s="9"/>
-      <c r="CE10" s="9"/>
-      <c r="CF10" s="9"/>
-      <c r="CG10" s="9"/>
-      <c r="CH10" s="9"/>
-      <c r="CI10" s="9"/>
-      <c r="CJ10" s="9"/>
-      <c r="CK10" s="9"/>
-      <c r="CL10" s="9"/>
-      <c r="CM10" s="9"/>
-      <c r="CN10" s="9"/>
-      <c r="CO10" s="9"/>
-      <c r="CP10" s="9"/>
-      <c r="CQ10" s="9"/>
-      <c r="CR10" s="9"/>
-      <c r="CS10" s="9"/>
-    </row>
-    <row r="11" spans="1:104" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1914,110 +1815,108 @@
       <c r="CS13" s="9"/>
     </row>
     <row r="14" spans="1:104" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="9"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="9"/>
+      <c r="BT14" s="9"/>
+      <c r="BU14" s="9"/>
+      <c r="BV14" s="9"/>
+      <c r="BW14" s="9"/>
+      <c r="BX14" s="9"/>
+      <c r="BY14" s="9"/>
+      <c r="BZ14" s="9"/>
+      <c r="CA14" s="9"/>
+      <c r="CB14" s="9"/>
+      <c r="CC14" s="9"/>
+      <c r="CD14" s="9"/>
+      <c r="CE14" s="9"/>
+      <c r="CF14" s="9"/>
+      <c r="CG14" s="9"/>
+      <c r="CH14" s="9"/>
+      <c r="CI14" s="9"/>
+      <c r="CJ14" s="9"/>
+      <c r="CK14" s="9"/>
+      <c r="CL14" s="9"/>
+      <c r="CM14" s="9"/>
+      <c r="CN14" s="9"/>
+      <c r="CO14" s="9"/>
+      <c r="CP14" s="9"/>
+      <c r="CQ14" s="9"/>
+      <c r="CR14" s="9"/>
+      <c r="CS14" s="9"/>
+    </row>
+    <row r="15" spans="1:104" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
-      <c r="AS14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="8"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="8"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="8"/>
-      <c r="BA14" s="8"/>
-      <c r="BB14" s="8"/>
-      <c r="BC14" s="8"/>
-      <c r="BD14" s="8"/>
-      <c r="BE14" s="8"/>
-      <c r="BF14" s="8"/>
-      <c r="BG14" s="8"/>
-      <c r="BH14" s="8"/>
-      <c r="BI14" s="8"/>
-      <c r="BJ14" s="8"/>
-      <c r="BK14" s="8"/>
-      <c r="BL14" s="8"/>
-      <c r="BM14" s="8"/>
-      <c r="BN14" s="8"/>
-      <c r="BO14" s="8"/>
-      <c r="BP14" s="8"/>
-      <c r="BQ14" s="8"/>
-      <c r="BR14" s="8"/>
-      <c r="BS14" s="8"/>
-      <c r="BT14" s="8"/>
-      <c r="BU14" s="8"/>
-      <c r="BV14" s="8"/>
-      <c r="BW14" s="8"/>
-      <c r="BX14" s="8"/>
-      <c r="BY14" s="8"/>
-      <c r="BZ14" s="8"/>
-      <c r="CA14" s="8"/>
-      <c r="CB14" s="8"/>
-      <c r="CC14" s="8"/>
-      <c r="CD14" s="8"/>
-      <c r="CE14" s="8"/>
-      <c r="CF14" s="8"/>
-      <c r="CG14" s="8"/>
-      <c r="CH14" s="8"/>
-      <c r="CI14" s="8"/>
-      <c r="CJ14" s="8"/>
-      <c r="CK14" s="8"/>
-      <c r="CL14" s="8"/>
-      <c r="CM14" s="8"/>
-      <c r="CN14" s="8"/>
-      <c r="CO14" s="8"/>
-      <c r="CP14" s="8"/>
-      <c r="CQ14" s="8"/>
-      <c r="CR14" s="8"/>
-      <c r="CS14" s="8"/>
-    </row>
-    <row r="15" spans="1:104" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2061,7 +1960,9 @@
       <c r="AP15" s="7"/>
       <c r="AQ15" s="7"/>
       <c r="AR15" s="7"/>
-      <c r="AS15" s="8"/>
+      <c r="AS15" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="AT15" s="8"/>
       <c r="AU15" s="8"/>
       <c r="AV15" s="8"/>
@@ -2314,9 +2215,7 @@
       <c r="CS17" s="8"/>
     </row>
     <row r="18" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2360,9 +2259,7 @@
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
-      <c r="AS18" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="AS18" s="8"/>
       <c r="AT18" s="8"/>
       <c r="AU18" s="8"/>
       <c r="AV18" s="8"/>
@@ -2417,7 +2314,9 @@
       <c r="CS18" s="8"/>
     </row>
     <row r="19" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
+      <c r="A19" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2461,7 +2360,9 @@
       <c r="AP19" s="7"/>
       <c r="AQ19" s="7"/>
       <c r="AR19" s="7"/>
-      <c r="AS19" s="8"/>
+      <c r="AS19" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="AT19" s="8"/>
       <c r="AU19" s="8"/>
       <c r="AV19" s="8"/>
@@ -2714,9 +2615,7 @@
       <c r="CS21" s="8"/>
     </row>
     <row r="22" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2731,35 +2630,35 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8"/>
-      <c r="AP22" s="8"/>
-      <c r="AQ22" s="8"/>
-      <c r="AR22" s="8"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
       <c r="AS22" s="8"/>
       <c r="AT22" s="8"/>
       <c r="AU22" s="8"/>
@@ -2815,7 +2714,9 @@
       <c r="CS22" s="8"/>
     </row>
     <row r="23" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
+      <c r="A23" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -3112,9 +3013,7 @@
       <c r="CS25" s="8"/>
     </row>
     <row r="26" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -3129,9 +3028,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -3215,7 +3112,9 @@
       <c r="CS26" s="8"/>
     </row>
     <row r="27" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
+      <c r="A27" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -3230,7 +3129,9 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
+      <c r="P27" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -3710,23 +3611,21 @@
       <c r="CS31" s="8"/>
     </row>
     <row r="32" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
@@ -3811,7 +3710,9 @@
       <c r="CS32" s="8"/>
     </row>
     <row r="33" spans="1:158" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6"/>
+      <c r="A33" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -4997,64 +4898,6 @@
       <c r="CQ44" s="8"/>
       <c r="CR44" s="8"/>
       <c r="CS44" s="8"/>
-      <c r="CW44" s="15"/>
-      <c r="CX44" s="15"/>
-      <c r="CY44" s="15"/>
-      <c r="CZ44" s="15"/>
-      <c r="DA44" s="15"/>
-      <c r="DB44" s="15"/>
-      <c r="DC44" s="15"/>
-      <c r="DD44" s="15"/>
-      <c r="DE44" s="15"/>
-      <c r="DF44" s="15"/>
-      <c r="DG44" s="15"/>
-      <c r="DH44" s="15"/>
-      <c r="DI44" s="15"/>
-      <c r="DJ44" s="15"/>
-      <c r="DK44" s="15"/>
-      <c r="DL44" s="15"/>
-      <c r="DM44" s="15"/>
-      <c r="DN44" s="15"/>
-      <c r="DO44" s="15"/>
-      <c r="DP44" s="15"/>
-      <c r="DQ44" s="15"/>
-      <c r="DR44" s="15"/>
-      <c r="DS44" s="15"/>
-      <c r="DT44" s="15"/>
-      <c r="DU44" s="15"/>
-      <c r="DV44" s="15"/>
-      <c r="DW44" s="15"/>
-      <c r="DX44" s="15"/>
-      <c r="DY44" s="15"/>
-      <c r="DZ44" s="15"/>
-      <c r="EA44" s="15"/>
-      <c r="EB44" s="15"/>
-      <c r="EC44" s="15"/>
-      <c r="ED44" s="15"/>
-      <c r="EE44" s="15"/>
-      <c r="EF44" s="15"/>
-      <c r="EG44" s="15"/>
-      <c r="EH44" s="15"/>
-      <c r="EI44" s="15"/>
-      <c r="EJ44" s="15"/>
-      <c r="EK44" s="15"/>
-      <c r="EL44" s="15"/>
-      <c r="EM44" s="15"/>
-      <c r="EN44" s="15"/>
-      <c r="EO44" s="15"/>
-      <c r="EP44" s="15"/>
-      <c r="EQ44" s="15"/>
-      <c r="ER44" s="15"/>
-      <c r="ES44" s="15"/>
-      <c r="ET44" s="15"/>
-      <c r="EU44" s="15"/>
-      <c r="EV44" s="15"/>
-      <c r="EW44" s="15"/>
-      <c r="EX44" s="15"/>
-      <c r="EY44" s="15"/>
-      <c r="EZ44" s="15"/>
-      <c r="FA44" s="15"/>
-      <c r="FB44" s="15"/>
     </row>
     <row r="45" spans="1:158" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
@@ -5939,28 +5782,28 @@
       <c r="CQ50" s="8"/>
       <c r="CR50" s="8"/>
       <c r="CS50" s="8"/>
-      <c r="CW50" s="16"/>
-      <c r="CX50" s="16"/>
-      <c r="CY50" s="16"/>
-      <c r="CZ50" s="16"/>
-      <c r="DA50" s="16"/>
-      <c r="DB50" s="16"/>
-      <c r="DC50" s="16"/>
-      <c r="DD50" s="16"/>
-      <c r="DE50" s="16"/>
-      <c r="DF50" s="16"/>
-      <c r="DG50" s="16"/>
-      <c r="DH50" s="16"/>
-      <c r="DI50" s="16"/>
-      <c r="DJ50" s="16"/>
-      <c r="DK50" s="16"/>
-      <c r="DL50" s="16"/>
-      <c r="DM50" s="16"/>
-      <c r="DN50" s="16"/>
-      <c r="DO50" s="16"/>
-      <c r="DP50" s="16"/>
-      <c r="DQ50" s="16"/>
-      <c r="DR50" s="16"/>
+      <c r="CW50" s="15"/>
+      <c r="CX50" s="15"/>
+      <c r="CY50" s="15"/>
+      <c r="CZ50" s="15"/>
+      <c r="DA50" s="15"/>
+      <c r="DB50" s="15"/>
+      <c r="DC50" s="15"/>
+      <c r="DD50" s="15"/>
+      <c r="DE50" s="15"/>
+      <c r="DF50" s="15"/>
+      <c r="DG50" s="15"/>
+      <c r="DH50" s="15"/>
+      <c r="DI50" s="15"/>
+      <c r="DJ50" s="15"/>
+      <c r="DK50" s="15"/>
+      <c r="DL50" s="15"/>
+      <c r="DM50" s="15"/>
+      <c r="DN50" s="15"/>
+      <c r="DO50" s="15"/>
+      <c r="DP50" s="15"/>
+      <c r="DQ50" s="15"/>
+      <c r="DR50" s="15"/>
       <c r="DS50" s="15"/>
       <c r="DT50" s="15"/>
       <c r="DU50" s="15"/>
@@ -6156,9 +5999,7 @@
       <c r="FB51" s="15"/>
     </row>
     <row r="52" spans="1:158" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -6173,95 +6014,88 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
-      <c r="P52" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="5"/>
-      <c r="AH52" s="5"/>
-      <c r="AI52" s="5"/>
-      <c r="AJ52" s="5"/>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="5"/>
-      <c r="AM52" s="5"/>
-      <c r="AN52" s="5"/>
-      <c r="AO52" s="5"/>
-      <c r="AP52" s="5"/>
-      <c r="AQ52" s="5"/>
-      <c r="AR52" s="5"/>
-      <c r="AS52" s="5"/>
-      <c r="AT52" s="5"/>
-      <c r="AU52" s="5"/>
-      <c r="AV52" s="5"/>
-      <c r="AW52" s="5"/>
-      <c r="AX52" s="5"/>
-      <c r="AY52" s="5"/>
-      <c r="AZ52" s="5"/>
-      <c r="BA52" s="5"/>
-      <c r="BB52" s="5"/>
-      <c r="BC52" s="5"/>
-      <c r="BD52" s="5"/>
-      <c r="BE52" s="5"/>
-      <c r="BF52" s="5"/>
-      <c r="BG52" s="5"/>
-      <c r="BH52" s="5"/>
-      <c r="BI52" s="5"/>
-      <c r="BJ52" s="5"/>
-      <c r="BK52" s="5"/>
-      <c r="BL52" s="5"/>
-      <c r="BM52" s="5"/>
-      <c r="BN52" s="5"/>
-      <c r="BO52" s="5"/>
-      <c r="BP52" s="5"/>
-      <c r="BQ52" s="5"/>
-      <c r="BR52" s="5"/>
-      <c r="BS52" s="5"/>
-      <c r="BT52" s="5"/>
-      <c r="BU52" s="5"/>
-      <c r="BV52" s="5"/>
-      <c r="BW52" s="5"/>
-      <c r="BX52" s="5"/>
-      <c r="BY52" s="5"/>
-      <c r="BZ52" s="5"/>
-      <c r="CA52" s="5"/>
-      <c r="CB52" s="5"/>
-      <c r="CC52" s="5"/>
-      <c r="CD52" s="5"/>
-      <c r="CE52" s="5"/>
-      <c r="CF52" s="5"/>
-      <c r="CG52" s="5"/>
-      <c r="CH52" s="5"/>
-      <c r="CI52" s="5"/>
-      <c r="CJ52" s="5"/>
-      <c r="CK52" s="5"/>
-      <c r="CL52" s="5"/>
-      <c r="CM52" s="5"/>
-      <c r="CN52" s="5"/>
-      <c r="CO52" s="5"/>
-      <c r="CP52" s="5"/>
-      <c r="CQ52" s="5"/>
-      <c r="CR52" s="5"/>
-      <c r="CS52" s="5"/>
-      <c r="CT52" s="15"/>
-      <c r="CU52" s="15"/>
-      <c r="CV52" s="15"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="8"/>
+      <c r="AN52" s="8"/>
+      <c r="AO52" s="8"/>
+      <c r="AP52" s="8"/>
+      <c r="AQ52" s="8"/>
+      <c r="AR52" s="8"/>
+      <c r="AS52" s="8"/>
+      <c r="AT52" s="8"/>
+      <c r="AU52" s="8"/>
+      <c r="AV52" s="8"/>
+      <c r="AW52" s="8"/>
+      <c r="AX52" s="8"/>
+      <c r="AY52" s="8"/>
+      <c r="AZ52" s="8"/>
+      <c r="BA52" s="8"/>
+      <c r="BB52" s="8"/>
+      <c r="BC52" s="8"/>
+      <c r="BD52" s="8"/>
+      <c r="BE52" s="8"/>
+      <c r="BF52" s="8"/>
+      <c r="BG52" s="8"/>
+      <c r="BH52" s="8"/>
+      <c r="BI52" s="8"/>
+      <c r="BJ52" s="8"/>
+      <c r="BK52" s="8"/>
+      <c r="BL52" s="8"/>
+      <c r="BM52" s="8"/>
+      <c r="BN52" s="8"/>
+      <c r="BO52" s="8"/>
+      <c r="BP52" s="8"/>
+      <c r="BQ52" s="8"/>
+      <c r="BR52" s="8"/>
+      <c r="BS52" s="8"/>
+      <c r="BT52" s="8"/>
+      <c r="BU52" s="8"/>
+      <c r="BV52" s="8"/>
+      <c r="BW52" s="8"/>
+      <c r="BX52" s="8"/>
+      <c r="BY52" s="8"/>
+      <c r="BZ52" s="8"/>
+      <c r="CA52" s="8"/>
+      <c r="CB52" s="8"/>
+      <c r="CC52" s="8"/>
+      <c r="CD52" s="8"/>
+      <c r="CE52" s="8"/>
+      <c r="CF52" s="8"/>
+      <c r="CG52" s="8"/>
+      <c r="CH52" s="8"/>
+      <c r="CI52" s="8"/>
+      <c r="CJ52" s="8"/>
+      <c r="CK52" s="8"/>
+      <c r="CL52" s="8"/>
+      <c r="CM52" s="8"/>
+      <c r="CN52" s="8"/>
+      <c r="CO52" s="8"/>
+      <c r="CP52" s="8"/>
+      <c r="CQ52" s="8"/>
+      <c r="CR52" s="8"/>
+      <c r="CS52" s="8"/>
       <c r="CW52" s="16"/>
       <c r="CX52" s="16"/>
       <c r="CY52" s="16"/>
@@ -6322,7 +6156,9 @@
       <c r="FB52" s="15"/>
     </row>
     <row r="53" spans="1:158" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="6"/>
+      <c r="A53" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -6337,7 +6173,9 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
+      <c r="P53" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
@@ -6348,7 +6186,9 @@
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
-      <c r="AA53" s="5"/>
+      <c r="AA53" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
@@ -6742,15 +6582,64 @@
       <c r="CT55" s="15"/>
       <c r="CU55" s="15"/>
       <c r="CV55" s="15"/>
-      <c r="CW55" s="15"/>
-      <c r="CX55" s="15"/>
-      <c r="CY55" s="15"/>
-      <c r="CZ55" s="15"/>
-      <c r="DA55" s="15"/>
-      <c r="DB55" s="15"/>
-      <c r="DC55" s="15"/>
-      <c r="DD55" s="15"/>
-      <c r="DE55" s="15"/>
+      <c r="CW55" s="16"/>
+      <c r="CX55" s="16"/>
+      <c r="CY55" s="16"/>
+      <c r="CZ55" s="16"/>
+      <c r="DA55" s="16"/>
+      <c r="DB55" s="16"/>
+      <c r="DC55" s="16"/>
+      <c r="DD55" s="16"/>
+      <c r="DE55" s="16"/>
+      <c r="DF55" s="16"/>
+      <c r="DG55" s="16"/>
+      <c r="DH55" s="16"/>
+      <c r="DI55" s="16"/>
+      <c r="DJ55" s="16"/>
+      <c r="DK55" s="16"/>
+      <c r="DL55" s="16"/>
+      <c r="DM55" s="16"/>
+      <c r="DN55" s="16"/>
+      <c r="DO55" s="16"/>
+      <c r="DP55" s="16"/>
+      <c r="DQ55" s="16"/>
+      <c r="DR55" s="16"/>
+      <c r="DS55" s="15"/>
+      <c r="DT55" s="15"/>
+      <c r="DU55" s="15"/>
+      <c r="DV55" s="15"/>
+      <c r="DW55" s="15"/>
+      <c r="DX55" s="15"/>
+      <c r="DY55" s="15"/>
+      <c r="DZ55" s="15"/>
+      <c r="EA55" s="15"/>
+      <c r="EB55" s="15"/>
+      <c r="EC55" s="15"/>
+      <c r="ED55" s="15"/>
+      <c r="EE55" s="15"/>
+      <c r="EF55" s="15"/>
+      <c r="EG55" s="15"/>
+      <c r="EH55" s="15"/>
+      <c r="EI55" s="15"/>
+      <c r="EJ55" s="15"/>
+      <c r="EK55" s="15"/>
+      <c r="EL55" s="15"/>
+      <c r="EM55" s="15"/>
+      <c r="EN55" s="15"/>
+      <c r="EO55" s="15"/>
+      <c r="EP55" s="15"/>
+      <c r="EQ55" s="15"/>
+      <c r="ER55" s="15"/>
+      <c r="ES55" s="15"/>
+      <c r="ET55" s="15"/>
+      <c r="EU55" s="15"/>
+      <c r="EV55" s="15"/>
+      <c r="EW55" s="15"/>
+      <c r="EX55" s="15"/>
+      <c r="EY55" s="15"/>
+      <c r="EZ55" s="15"/>
+      <c r="FA55" s="15"/>
+      <c r="FB55" s="15"/>
     </row>
     <row r="56" spans="1:158" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
@@ -6879,9 +6768,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
-      <c r="P57" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
@@ -6892,9 +6779,7 @@
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
-      <c r="AA57" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
@@ -6994,7 +6879,9 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
+      <c r="P58" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
@@ -7005,7 +6892,9 @@
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
-      <c r="AA58" s="5"/>
+      <c r="AA58" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
@@ -7438,9 +7327,7 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
-      <c r="P62" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
@@ -7451,9 +7338,7 @@
       <c r="X62" s="6"/>
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
-      <c r="AA62" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
@@ -7553,7 +7438,9 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
+      <c r="P63" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
@@ -7564,7 +7451,9 @@
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
-      <c r="AA63" s="5"/>
+      <c r="AA63" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
@@ -7997,9 +7886,7 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
-      <c r="P67" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
@@ -8010,77 +7897,77 @@
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
-      <c r="AA67" s="6"/>
-      <c r="AB67" s="6"/>
-      <c r="AC67" s="6"/>
-      <c r="AD67" s="6"/>
-      <c r="AE67" s="6"/>
-      <c r="AF67" s="6"/>
-      <c r="AG67" s="6"/>
-      <c r="AH67" s="6"/>
-      <c r="AI67" s="6"/>
-      <c r="AJ67" s="6"/>
-      <c r="AK67" s="6"/>
-      <c r="AL67" s="6"/>
-      <c r="AM67" s="6"/>
-      <c r="AN67" s="6"/>
-      <c r="AO67" s="6"/>
-      <c r="AP67" s="6"/>
-      <c r="AQ67" s="6"/>
-      <c r="AR67" s="6"/>
-      <c r="AS67" s="6"/>
-      <c r="AT67" s="6"/>
-      <c r="AU67" s="6"/>
-      <c r="AV67" s="6"/>
-      <c r="AW67" s="6"/>
-      <c r="AX67" s="6"/>
-      <c r="AY67" s="6"/>
-      <c r="AZ67" s="6"/>
-      <c r="BA67" s="6"/>
-      <c r="BB67" s="6"/>
-      <c r="BC67" s="6"/>
-      <c r="BD67" s="6"/>
-      <c r="BE67" s="6"/>
-      <c r="BF67" s="6"/>
-      <c r="BG67" s="6"/>
-      <c r="BH67" s="6"/>
-      <c r="BI67" s="6"/>
-      <c r="BJ67" s="6"/>
-      <c r="BK67" s="6"/>
-      <c r="BL67" s="6"/>
-      <c r="BM67" s="6"/>
-      <c r="BN67" s="6"/>
-      <c r="BO67" s="6"/>
-      <c r="BP67" s="6"/>
-      <c r="BQ67" s="6"/>
-      <c r="BR67" s="6"/>
-      <c r="BS67" s="6"/>
-      <c r="BT67" s="6"/>
-      <c r="BU67" s="6"/>
-      <c r="BV67" s="6"/>
-      <c r="BW67" s="6"/>
-      <c r="BX67" s="6"/>
-      <c r="BY67" s="6"/>
-      <c r="BZ67" s="6"/>
-      <c r="CA67" s="6"/>
-      <c r="CB67" s="6"/>
-      <c r="CC67" s="6"/>
-      <c r="CD67" s="6"/>
-      <c r="CE67" s="6"/>
-      <c r="CF67" s="6"/>
-      <c r="CG67" s="6"/>
-      <c r="CH67" s="6"/>
-      <c r="CI67" s="6"/>
-      <c r="CJ67" s="6"/>
-      <c r="CK67" s="6"/>
-      <c r="CL67" s="6"/>
-      <c r="CM67" s="6"/>
-      <c r="CN67" s="6"/>
-      <c r="CO67" s="6"/>
-      <c r="CP67" s="6"/>
-      <c r="CQ67" s="6"/>
-      <c r="CR67" s="6"/>
-      <c r="CS67" s="6"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+      <c r="AM67" s="5"/>
+      <c r="AN67" s="5"/>
+      <c r="AO67" s="5"/>
+      <c r="AP67" s="5"/>
+      <c r="AQ67" s="5"/>
+      <c r="AR67" s="5"/>
+      <c r="AS67" s="5"/>
+      <c r="AT67" s="5"/>
+      <c r="AU67" s="5"/>
+      <c r="AV67" s="5"/>
+      <c r="AW67" s="5"/>
+      <c r="AX67" s="5"/>
+      <c r="AY67" s="5"/>
+      <c r="AZ67" s="5"/>
+      <c r="BA67" s="5"/>
+      <c r="BB67" s="5"/>
+      <c r="BC67" s="5"/>
+      <c r="BD67" s="5"/>
+      <c r="BE67" s="5"/>
+      <c r="BF67" s="5"/>
+      <c r="BG67" s="5"/>
+      <c r="BH67" s="5"/>
+      <c r="BI67" s="5"/>
+      <c r="BJ67" s="5"/>
+      <c r="BK67" s="5"/>
+      <c r="BL67" s="5"/>
+      <c r="BM67" s="5"/>
+      <c r="BN67" s="5"/>
+      <c r="BO67" s="5"/>
+      <c r="BP67" s="5"/>
+      <c r="BQ67" s="5"/>
+      <c r="BR67" s="5"/>
+      <c r="BS67" s="5"/>
+      <c r="BT67" s="5"/>
+      <c r="BU67" s="5"/>
+      <c r="BV67" s="5"/>
+      <c r="BW67" s="5"/>
+      <c r="BX67" s="5"/>
+      <c r="BY67" s="5"/>
+      <c r="BZ67" s="5"/>
+      <c r="CA67" s="5"/>
+      <c r="CB67" s="5"/>
+      <c r="CC67" s="5"/>
+      <c r="CD67" s="5"/>
+      <c r="CE67" s="5"/>
+      <c r="CF67" s="5"/>
+      <c r="CG67" s="5"/>
+      <c r="CH67" s="5"/>
+      <c r="CI67" s="5"/>
+      <c r="CJ67" s="5"/>
+      <c r="CK67" s="5"/>
+      <c r="CL67" s="5"/>
+      <c r="CM67" s="5"/>
+      <c r="CN67" s="5"/>
+      <c r="CO67" s="5"/>
+      <c r="CP67" s="5"/>
+      <c r="CQ67" s="5"/>
+      <c r="CR67" s="5"/>
+      <c r="CS67" s="5"/>
       <c r="CT67" s="15"/>
       <c r="CU67" s="15"/>
       <c r="CV67" s="15"/>
@@ -8110,7 +7997,9 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
+      <c r="P68" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
@@ -8759,122 +8648,108 @@
       <c r="DC73" s="15"/>
       <c r="DD73" s="15"/>
       <c r="DE73" s="15"/>
-      <c r="DF73" s="15"/>
-      <c r="DG73" s="15"/>
-      <c r="DH73" s="15"/>
-      <c r="DI73" s="15"/>
-      <c r="DJ73" s="15"/>
-      <c r="DK73" s="15"/>
-      <c r="DL73" s="15"/>
-      <c r="DM73" s="15"/>
-      <c r="DN73" s="15"/>
-      <c r="DO73" s="15"/>
-      <c r="DP73" s="15"/>
-      <c r="DQ73" s="15"/>
-      <c r="DR73" s="15"/>
-      <c r="DS73" s="15"/>
-      <c r="DT73" s="15"/>
     </row>
     <row r="74" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
-      <c r="X74" s="8"/>
-      <c r="Y74" s="8"/>
-      <c r="Z74" s="8"/>
-      <c r="AA74" s="8"/>
-      <c r="AB74" s="8"/>
-      <c r="AC74" s="8"/>
-      <c r="AD74" s="8"/>
-      <c r="AE74" s="8"/>
-      <c r="AF74" s="8"/>
-      <c r="AG74" s="8"/>
-      <c r="AH74" s="8"/>
-      <c r="AI74" s="8"/>
-      <c r="AJ74" s="8"/>
-      <c r="AK74" s="8"/>
-      <c r="AL74" s="8"/>
-      <c r="AM74" s="8"/>
-      <c r="AN74" s="8"/>
-      <c r="AO74" s="8"/>
-      <c r="AP74" s="8"/>
-      <c r="AQ74" s="8"/>
-      <c r="AR74" s="8"/>
-      <c r="AS74" s="8"/>
-      <c r="AT74" s="8"/>
-      <c r="AU74" s="8"/>
-      <c r="AV74" s="8"/>
-      <c r="AW74" s="8"/>
-      <c r="AX74" s="8"/>
-      <c r="AY74" s="8"/>
-      <c r="AZ74" s="8"/>
-      <c r="BA74" s="8"/>
-      <c r="BB74" s="8"/>
-      <c r="BC74" s="8"/>
-      <c r="BD74" s="8"/>
-      <c r="BE74" s="8"/>
-      <c r="BF74" s="8"/>
-      <c r="BG74" s="8"/>
-      <c r="BH74" s="8"/>
-      <c r="BI74" s="8"/>
-      <c r="BJ74" s="8"/>
-      <c r="BK74" s="8"/>
-      <c r="BL74" s="8"/>
-      <c r="BM74" s="8"/>
-      <c r="BN74" s="8"/>
-      <c r="BO74" s="8"/>
-      <c r="BP74" s="8"/>
-      <c r="BQ74" s="8"/>
-      <c r="BR74" s="8"/>
-      <c r="BS74" s="8"/>
-      <c r="BT74" s="8"/>
-      <c r="BU74" s="8"/>
-      <c r="BV74" s="8"/>
-      <c r="BW74" s="8"/>
-      <c r="BX74" s="8"/>
-      <c r="BY74" s="8"/>
-      <c r="BZ74" s="8"/>
-      <c r="CA74" s="8"/>
-      <c r="CB74" s="8"/>
-      <c r="CC74" s="8"/>
-      <c r="CD74" s="8"/>
-      <c r="CE74" s="8"/>
-      <c r="CF74" s="8"/>
-      <c r="CG74" s="8"/>
-      <c r="CH74" s="8"/>
-      <c r="CI74" s="8"/>
-      <c r="CJ74" s="8"/>
-      <c r="CK74" s="8"/>
-      <c r="CL74" s="8"/>
-      <c r="CM74" s="8"/>
-      <c r="CN74" s="8"/>
-      <c r="CO74" s="8"/>
-      <c r="CP74" s="8"/>
-      <c r="CQ74" s="8"/>
-      <c r="CR74" s="8"/>
-      <c r="CS74" s="8"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="6"/>
+      <c r="AB74" s="6"/>
+      <c r="AC74" s="6"/>
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="6"/>
+      <c r="AF74" s="6"/>
+      <c r="AG74" s="6"/>
+      <c r="AH74" s="6"/>
+      <c r="AI74" s="6"/>
+      <c r="AJ74" s="6"/>
+      <c r="AK74" s="6"/>
+      <c r="AL74" s="6"/>
+      <c r="AM74" s="6"/>
+      <c r="AN74" s="6"/>
+      <c r="AO74" s="6"/>
+      <c r="AP74" s="6"/>
+      <c r="AQ74" s="6"/>
+      <c r="AR74" s="6"/>
+      <c r="AS74" s="6"/>
+      <c r="AT74" s="6"/>
+      <c r="AU74" s="6"/>
+      <c r="AV74" s="6"/>
+      <c r="AW74" s="6"/>
+      <c r="AX74" s="6"/>
+      <c r="AY74" s="6"/>
+      <c r="AZ74" s="6"/>
+      <c r="BA74" s="6"/>
+      <c r="BB74" s="6"/>
+      <c r="BC74" s="6"/>
+      <c r="BD74" s="6"/>
+      <c r="BE74" s="6"/>
+      <c r="BF74" s="6"/>
+      <c r="BG74" s="6"/>
+      <c r="BH74" s="6"/>
+      <c r="BI74" s="6"/>
+      <c r="BJ74" s="6"/>
+      <c r="BK74" s="6"/>
+      <c r="BL74" s="6"/>
+      <c r="BM74" s="6"/>
+      <c r="BN74" s="6"/>
+      <c r="BO74" s="6"/>
+      <c r="BP74" s="6"/>
+      <c r="BQ74" s="6"/>
+      <c r="BR74" s="6"/>
+      <c r="BS74" s="6"/>
+      <c r="BT74" s="6"/>
+      <c r="BU74" s="6"/>
+      <c r="BV74" s="6"/>
+      <c r="BW74" s="6"/>
+      <c r="BX74" s="6"/>
+      <c r="BY74" s="6"/>
+      <c r="BZ74" s="6"/>
+      <c r="CA74" s="6"/>
+      <c r="CB74" s="6"/>
+      <c r="CC74" s="6"/>
+      <c r="CD74" s="6"/>
+      <c r="CE74" s="6"/>
+      <c r="CF74" s="6"/>
+      <c r="CG74" s="6"/>
+      <c r="CH74" s="6"/>
+      <c r="CI74" s="6"/>
+      <c r="CJ74" s="6"/>
+      <c r="CK74" s="6"/>
+      <c r="CL74" s="6"/>
+      <c r="CM74" s="6"/>
+      <c r="CN74" s="6"/>
+      <c r="CO74" s="6"/>
+      <c r="CP74" s="6"/>
+      <c r="CQ74" s="6"/>
+      <c r="CR74" s="6"/>
+      <c r="CS74" s="6"/>
+      <c r="CT74" s="15"/>
+      <c r="CU74" s="15"/>
+      <c r="CV74" s="15"/>
       <c r="CW74" s="15"/>
       <c r="CX74" s="15"/>
       <c r="CY74" s="15"/>
@@ -8901,7 +8776,9 @@
       <c r="DT74" s="15"/>
     </row>
     <row r="75" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="8"/>
+      <c r="A75" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -9147,23 +9024,21 @@
       <c r="DT76" s="15"/>
     </row>
     <row r="77" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
@@ -9182,43 +9057,39 @@
       <c r="AE77" s="8"/>
       <c r="AF77" s="8"/>
       <c r="AG77" s="8"/>
-      <c r="AH77" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI77" s="6"/>
-      <c r="AJ77" s="6"/>
-      <c r="AK77" s="6"/>
-      <c r="AL77" s="6"/>
-      <c r="AM77" s="6"/>
-      <c r="AN77" s="6"/>
-      <c r="AO77" s="6"/>
-      <c r="AP77" s="6"/>
-      <c r="AQ77" s="6"/>
-      <c r="AR77" s="6"/>
-      <c r="AS77" s="6"/>
-      <c r="AT77" s="6"/>
-      <c r="AU77" s="6"/>
-      <c r="AV77" s="6"/>
-      <c r="AW77" s="4"/>
-      <c r="AX77" s="4"/>
-      <c r="AY77" s="4"/>
-      <c r="AZ77" s="4"/>
-      <c r="BA77" s="4"/>
-      <c r="BB77" s="4"/>
-      <c r="BC77" s="4"/>
-      <c r="BD77" s="4"/>
-      <c r="BE77" s="4"/>
-      <c r="BF77" s="4"/>
-      <c r="BG77" s="4"/>
-      <c r="BH77" s="4"/>
-      <c r="BI77" s="4"/>
-      <c r="BJ77" s="4"/>
-      <c r="BK77" s="4"/>
-      <c r="BL77" s="4"/>
-      <c r="BM77" s="4"/>
-      <c r="BN77" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="AH77" s="8"/>
+      <c r="AI77" s="8"/>
+      <c r="AJ77" s="8"/>
+      <c r="AK77" s="8"/>
+      <c r="AL77" s="8"/>
+      <c r="AM77" s="8"/>
+      <c r="AN77" s="8"/>
+      <c r="AO77" s="8"/>
+      <c r="AP77" s="8"/>
+      <c r="AQ77" s="8"/>
+      <c r="AR77" s="8"/>
+      <c r="AS77" s="8"/>
+      <c r="AT77" s="8"/>
+      <c r="AU77" s="8"/>
+      <c r="AV77" s="8"/>
+      <c r="AW77" s="8"/>
+      <c r="AX77" s="8"/>
+      <c r="AY77" s="8"/>
+      <c r="AZ77" s="8"/>
+      <c r="BA77" s="8"/>
+      <c r="BB77" s="8"/>
+      <c r="BC77" s="8"/>
+      <c r="BD77" s="8"/>
+      <c r="BE77" s="8"/>
+      <c r="BF77" s="8"/>
+      <c r="BG77" s="8"/>
+      <c r="BH77" s="8"/>
+      <c r="BI77" s="8"/>
+      <c r="BJ77" s="8"/>
+      <c r="BK77" s="8"/>
+      <c r="BL77" s="8"/>
+      <c r="BM77" s="8"/>
+      <c r="BN77" s="8"/>
       <c r="BO77" s="8"/>
       <c r="BP77" s="8"/>
       <c r="BQ77" s="8"/>
@@ -9276,7 +9147,9 @@
       <c r="DT77" s="15"/>
     </row>
     <row r="78" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="6"/>
+      <c r="A78" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -9309,7 +9182,9 @@
       <c r="AE78" s="8"/>
       <c r="AF78" s="8"/>
       <c r="AG78" s="8"/>
-      <c r="AH78" s="6"/>
+      <c r="AH78" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="AI78" s="6"/>
       <c r="AJ78" s="6"/>
       <c r="AK78" s="6"/>
@@ -9341,7 +9216,9 @@
       <c r="BK78" s="4"/>
       <c r="BL78" s="4"/>
       <c r="BM78" s="4"/>
-      <c r="BN78" s="8"/>
+      <c r="BN78" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="BO78" s="8"/>
       <c r="BP78" s="8"/>
       <c r="BQ78" s="8"/>
@@ -9397,64 +9274,6 @@
       <c r="DR78" s="15"/>
       <c r="DS78" s="15"/>
       <c r="DT78" s="15"/>
-      <c r="DU78" s="16"/>
-      <c r="DV78" s="16"/>
-      <c r="DW78" s="16"/>
-      <c r="DX78" s="16"/>
-      <c r="DY78" s="16"/>
-      <c r="DZ78" s="16"/>
-      <c r="EA78" s="16"/>
-      <c r="EB78" s="16"/>
-      <c r="EC78" s="16"/>
-      <c r="ED78" s="16"/>
-      <c r="EE78" s="16"/>
-      <c r="EF78" s="16"/>
-      <c r="EG78" s="16"/>
-      <c r="EH78" s="16"/>
-      <c r="EI78" s="16"/>
-      <c r="EJ78" s="16"/>
-      <c r="EK78" s="16"/>
-      <c r="EL78" s="16"/>
-      <c r="EM78" s="16"/>
-      <c r="EN78" s="16"/>
-      <c r="EO78" s="16"/>
-      <c r="EP78" s="16"/>
-      <c r="EQ78" s="16"/>
-      <c r="ER78" s="16"/>
-      <c r="ES78" s="16"/>
-      <c r="ET78" s="16"/>
-      <c r="EU78" s="16"/>
-      <c r="EV78" s="16"/>
-      <c r="EW78" s="16"/>
-      <c r="EX78" s="16"/>
-      <c r="EY78" s="16"/>
-      <c r="EZ78" s="16"/>
-      <c r="FA78" s="16"/>
-      <c r="FB78" s="16"/>
-      <c r="FC78" s="16"/>
-      <c r="FD78" s="16"/>
-      <c r="FE78" s="16"/>
-      <c r="FF78" s="16"/>
-      <c r="FG78" s="16"/>
-      <c r="FH78" s="16"/>
-      <c r="FI78" s="16"/>
-      <c r="FJ78" s="16"/>
-      <c r="FK78" s="16"/>
-      <c r="FL78" s="16"/>
-      <c r="FM78" s="16"/>
-      <c r="FN78" s="16"/>
-      <c r="FO78" s="16"/>
-      <c r="FP78" s="16"/>
-      <c r="FQ78" s="16"/>
-      <c r="FR78" s="16"/>
-      <c r="FS78" s="16"/>
-      <c r="FT78" s="16"/>
-      <c r="FU78" s="16"/>
-      <c r="FV78" s="16"/>
-      <c r="FW78" s="16"/>
-      <c r="FX78" s="16"/>
-      <c r="FY78" s="16"/>
-      <c r="FZ78" s="16"/>
     </row>
     <row r="79" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
@@ -9554,6 +9373,19 @@
       <c r="CQ79" s="8"/>
       <c r="CR79" s="8"/>
       <c r="CS79" s="8"/>
+      <c r="CW79" s="15"/>
+      <c r="CX79" s="15"/>
+      <c r="CY79" s="15"/>
+      <c r="CZ79" s="15"/>
+      <c r="DA79" s="15"/>
+      <c r="DB79" s="15"/>
+      <c r="DC79" s="15"/>
+      <c r="DD79" s="15"/>
+      <c r="DE79" s="15"/>
+      <c r="DF79" s="15"/>
+      <c r="DG79" s="15"/>
+      <c r="DH79" s="15"/>
+      <c r="DI79" s="15"/>
       <c r="DJ79" s="15"/>
       <c r="DK79" s="15"/>
       <c r="DL79" s="15"/>
@@ -9792,7 +9624,7 @@
       <c r="FY80" s="16"/>
       <c r="FZ80" s="16"/>
     </row>
-    <row r="81" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -9890,8 +9722,77 @@
       <c r="CQ81" s="8"/>
       <c r="CR81" s="8"/>
       <c r="CS81" s="8"/>
+      <c r="DJ81" s="15"/>
+      <c r="DK81" s="15"/>
+      <c r="DL81" s="15"/>
+      <c r="DM81" s="15"/>
+      <c r="DN81" s="15"/>
+      <c r="DO81" s="15"/>
+      <c r="DP81" s="15"/>
+      <c r="DQ81" s="15"/>
+      <c r="DR81" s="15"/>
+      <c r="DS81" s="15"/>
+      <c r="DT81" s="15"/>
+      <c r="DU81" s="16"/>
+      <c r="DV81" s="16"/>
+      <c r="DW81" s="16"/>
+      <c r="DX81" s="16"/>
+      <c r="DY81" s="16"/>
+      <c r="DZ81" s="16"/>
+      <c r="EA81" s="16"/>
+      <c r="EB81" s="16"/>
+      <c r="EC81" s="16"/>
+      <c r="ED81" s="16"/>
+      <c r="EE81" s="16"/>
+      <c r="EF81" s="16"/>
+      <c r="EG81" s="16"/>
+      <c r="EH81" s="16"/>
+      <c r="EI81" s="16"/>
+      <c r="EJ81" s="16"/>
+      <c r="EK81" s="16"/>
+      <c r="EL81" s="16"/>
+      <c r="EM81" s="16"/>
+      <c r="EN81" s="16"/>
+      <c r="EO81" s="16"/>
+      <c r="EP81" s="16"/>
+      <c r="EQ81" s="16"/>
+      <c r="ER81" s="16"/>
+      <c r="ES81" s="16"/>
+      <c r="ET81" s="16"/>
+      <c r="EU81" s="16"/>
+      <c r="EV81" s="16"/>
+      <c r="EW81" s="16"/>
+      <c r="EX81" s="16"/>
+      <c r="EY81" s="16"/>
+      <c r="EZ81" s="16"/>
+      <c r="FA81" s="16"/>
+      <c r="FB81" s="16"/>
+      <c r="FC81" s="16"/>
+      <c r="FD81" s="16"/>
+      <c r="FE81" s="16"/>
+      <c r="FF81" s="16"/>
+      <c r="FG81" s="16"/>
+      <c r="FH81" s="16"/>
+      <c r="FI81" s="16"/>
+      <c r="FJ81" s="16"/>
+      <c r="FK81" s="16"/>
+      <c r="FL81" s="16"/>
+      <c r="FM81" s="16"/>
+      <c r="FN81" s="16"/>
+      <c r="FO81" s="16"/>
+      <c r="FP81" s="16"/>
+      <c r="FQ81" s="16"/>
+      <c r="FR81" s="16"/>
+      <c r="FS81" s="16"/>
+      <c r="FT81" s="16"/>
+      <c r="FU81" s="16"/>
+      <c r="FV81" s="16"/>
+      <c r="FW81" s="16"/>
+      <c r="FX81" s="16"/>
+      <c r="FY81" s="16"/>
+      <c r="FZ81" s="16"/>
     </row>
-    <row r="82" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -9990,7 +9891,7 @@
       <c r="CR82" s="8"/>
       <c r="CS82" s="8"/>
     </row>
-    <row r="83" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -10089,7 +9990,7 @@
       <c r="CR83" s="8"/>
       <c r="CS83" s="8"/>
     </row>
-    <row r="84" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -10188,7 +10089,7 @@
       <c r="CR84" s="8"/>
       <c r="CS84" s="8"/>
     </row>
-    <row r="85" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -10287,7 +10188,7 @@
       <c r="CR85" s="8"/>
       <c r="CS85" s="8"/>
     </row>
-    <row r="86" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -10386,7 +10287,7 @@
       <c r="CR86" s="8"/>
       <c r="CS86" s="8"/>
     </row>
-    <row r="87" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -10485,7 +10386,7 @@
       <c r="CR87" s="8"/>
       <c r="CS87" s="8"/>
     </row>
-    <row r="88" spans="1:97" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -10584,24 +10485,22 @@
       <c r="CR88" s="8"/>
       <c r="CS88" s="8"/>
     </row>
-    <row r="89" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
+    <row r="89" spans="1:182" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
@@ -10620,38 +10519,38 @@
       <c r="AE89" s="8"/>
       <c r="AF89" s="8"/>
       <c r="AG89" s="8"/>
-      <c r="AH89" s="8"/>
-      <c r="AI89" s="8"/>
-      <c r="AJ89" s="8"/>
-      <c r="AK89" s="8"/>
-      <c r="AL89" s="8"/>
-      <c r="AM89" s="8"/>
-      <c r="AN89" s="8"/>
-      <c r="AO89" s="8"/>
-      <c r="AP89" s="8"/>
-      <c r="AQ89" s="8"/>
-      <c r="AR89" s="8"/>
-      <c r="AS89" s="8"/>
-      <c r="AT89" s="8"/>
-      <c r="AU89" s="8"/>
-      <c r="AV89" s="8"/>
-      <c r="AW89" s="8"/>
-      <c r="AX89" s="8"/>
-      <c r="AY89" s="8"/>
-      <c r="AZ89" s="8"/>
-      <c r="BA89" s="8"/>
-      <c r="BB89" s="8"/>
-      <c r="BC89" s="8"/>
-      <c r="BD89" s="8"/>
-      <c r="BE89" s="8"/>
-      <c r="BF89" s="8"/>
-      <c r="BG89" s="8"/>
-      <c r="BH89" s="8"/>
-      <c r="BI89" s="8"/>
-      <c r="BJ89" s="8"/>
-      <c r="BK89" s="8"/>
-      <c r="BL89" s="8"/>
-      <c r="BM89" s="8"/>
+      <c r="AH89" s="6"/>
+      <c r="AI89" s="6"/>
+      <c r="AJ89" s="6"/>
+      <c r="AK89" s="6"/>
+      <c r="AL89" s="6"/>
+      <c r="AM89" s="6"/>
+      <c r="AN89" s="6"/>
+      <c r="AO89" s="6"/>
+      <c r="AP89" s="6"/>
+      <c r="AQ89" s="6"/>
+      <c r="AR89" s="6"/>
+      <c r="AS89" s="6"/>
+      <c r="AT89" s="6"/>
+      <c r="AU89" s="6"/>
+      <c r="AV89" s="6"/>
+      <c r="AW89" s="4"/>
+      <c r="AX89" s="4"/>
+      <c r="AY89" s="4"/>
+      <c r="AZ89" s="4"/>
+      <c r="BA89" s="4"/>
+      <c r="BB89" s="4"/>
+      <c r="BC89" s="4"/>
+      <c r="BD89" s="4"/>
+      <c r="BE89" s="4"/>
+      <c r="BF89" s="4"/>
+      <c r="BG89" s="4"/>
+      <c r="BH89" s="4"/>
+      <c r="BI89" s="4"/>
+      <c r="BJ89" s="4"/>
+      <c r="BK89" s="4"/>
+      <c r="BL89" s="4"/>
+      <c r="BM89" s="4"/>
       <c r="BN89" s="8"/>
       <c r="BO89" s="8"/>
       <c r="BP89" s="8"/>
@@ -10685,8 +10584,10 @@
       <c r="CR89" s="8"/>
       <c r="CS89" s="8"/>
     </row>
-    <row r="90" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="8"/>
+    <row r="90" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -10784,7 +10685,7 @@
       <c r="CR90" s="8"/>
       <c r="CS90" s="8"/>
     </row>
-    <row r="91" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -10883,24 +10784,22 @@
       <c r="CR91" s="8"/>
       <c r="CS91" s="8"/>
     </row>
-    <row r="92" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
+    <row r="92" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
@@ -10984,8 +10883,10 @@
       <c r="CR92" s="8"/>
       <c r="CS92" s="8"/>
     </row>
-    <row r="93" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="6"/>
+    <row r="93" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -11083,7 +10984,7 @@
       <c r="CR93" s="8"/>
       <c r="CS93" s="8"/>
     </row>
-    <row r="94" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -11182,7 +11083,7 @@
       <c r="CR94" s="8"/>
       <c r="CS94" s="8"/>
     </row>
-    <row r="95" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -11281,7 +11182,7 @@
       <c r="CR95" s="8"/>
       <c r="CS95" s="8"/>
     </row>
-    <row r="96" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:182" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -12074,9 +11975,7 @@
       <c r="CS103" s="8"/>
     </row>
     <row r="104" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -12091,58 +11990,56 @@
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
       <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
-      <c r="T104" s="6"/>
-      <c r="U104" s="6"/>
-      <c r="V104" s="6"/>
-      <c r="W104" s="6"/>
-      <c r="X104" s="6"/>
-      <c r="Y104" s="6"/>
-      <c r="Z104" s="6"/>
-      <c r="AA104" s="6"/>
-      <c r="AB104" s="6"/>
-      <c r="AC104" s="6"/>
-      <c r="AD104" s="6"/>
-      <c r="AE104" s="6"/>
-      <c r="AF104" s="6"/>
-      <c r="AG104" s="6"/>
-      <c r="AH104" s="6"/>
-      <c r="AI104" s="6"/>
-      <c r="AJ104" s="6"/>
-      <c r="AK104" s="6"/>
-      <c r="AL104" s="6"/>
-      <c r="AM104" s="6"/>
-      <c r="AN104" s="6"/>
-      <c r="AO104" s="6"/>
-      <c r="AP104" s="6"/>
-      <c r="AQ104" s="6"/>
-      <c r="AR104" s="6"/>
-      <c r="AS104" s="6"/>
-      <c r="AT104" s="6"/>
-      <c r="AU104" s="6"/>
-      <c r="AV104" s="6"/>
-      <c r="AW104" s="6"/>
-      <c r="AX104" s="6"/>
-      <c r="AY104" s="6"/>
-      <c r="AZ104" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA104" s="6"/>
-      <c r="BB104" s="6"/>
-      <c r="BC104" s="6"/>
-      <c r="BD104" s="6"/>
-      <c r="BE104" s="6"/>
-      <c r="BF104" s="6"/>
-      <c r="BG104" s="6"/>
-      <c r="BH104" s="6"/>
-      <c r="BI104" s="6"/>
-      <c r="BJ104" s="6"/>
-      <c r="BK104" s="6"/>
-      <c r="BL104" s="6"/>
-      <c r="BM104" s="6"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
+      <c r="R104" s="8"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+      <c r="V104" s="8"/>
+      <c r="W104" s="8"/>
+      <c r="X104" s="8"/>
+      <c r="Y104" s="8"/>
+      <c r="Z104" s="8"/>
+      <c r="AA104" s="8"/>
+      <c r="AB104" s="8"/>
+      <c r="AC104" s="8"/>
+      <c r="AD104" s="8"/>
+      <c r="AE104" s="8"/>
+      <c r="AF104" s="8"/>
+      <c r="AG104" s="8"/>
+      <c r="AH104" s="8"/>
+      <c r="AI104" s="8"/>
+      <c r="AJ104" s="8"/>
+      <c r="AK104" s="8"/>
+      <c r="AL104" s="8"/>
+      <c r="AM104" s="8"/>
+      <c r="AN104" s="8"/>
+      <c r="AO104" s="8"/>
+      <c r="AP104" s="8"/>
+      <c r="AQ104" s="8"/>
+      <c r="AR104" s="8"/>
+      <c r="AS104" s="8"/>
+      <c r="AT104" s="8"/>
+      <c r="AU104" s="8"/>
+      <c r="AV104" s="8"/>
+      <c r="AW104" s="8"/>
+      <c r="AX104" s="8"/>
+      <c r="AY104" s="8"/>
+      <c r="AZ104" s="8"/>
+      <c r="BA104" s="8"/>
+      <c r="BB104" s="8"/>
+      <c r="BC104" s="8"/>
+      <c r="BD104" s="8"/>
+      <c r="BE104" s="8"/>
+      <c r="BF104" s="8"/>
+      <c r="BG104" s="8"/>
+      <c r="BH104" s="8"/>
+      <c r="BI104" s="8"/>
+      <c r="BJ104" s="8"/>
+      <c r="BK104" s="8"/>
+      <c r="BL104" s="8"/>
+      <c r="BM104" s="8"/>
       <c r="BN104" s="8"/>
       <c r="BO104" s="8"/>
       <c r="BP104" s="8"/>
@@ -12177,7 +12074,9 @@
       <c r="CS104" s="8"/>
     </row>
     <row r="105" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="6"/>
+      <c r="A105" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -12228,7 +12127,9 @@
       <c r="AW105" s="6"/>
       <c r="AX105" s="6"/>
       <c r="AY105" s="6"/>
-      <c r="AZ105" s="6"/>
+      <c r="AZ105" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="BA105" s="6"/>
       <c r="BB105" s="6"/>
       <c r="BC105" s="6"/>
@@ -12672,64 +12573,58 @@
       <c r="CS109" s="8"/>
     </row>
     <row r="110" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="8"/>
-      <c r="S110" s="8"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="8"/>
-      <c r="V110" s="8"/>
-      <c r="W110" s="8"/>
-      <c r="X110" s="8"/>
-      <c r="Y110" s="8"/>
-      <c r="Z110" s="8"/>
-      <c r="AA110" s="8"/>
-      <c r="AB110" s="8"/>
-      <c r="AC110" s="8"/>
-      <c r="AD110" s="8"/>
-      <c r="AE110" s="8"/>
-      <c r="AF110" s="8"/>
-      <c r="AG110" s="8"/>
-      <c r="AH110" s="8"/>
-      <c r="AI110" s="8"/>
-      <c r="AJ110" s="8"/>
-      <c r="AK110" s="8"/>
-      <c r="AL110" s="8"/>
-      <c r="AM110" s="8"/>
-      <c r="AN110" s="8"/>
-      <c r="AO110" s="8"/>
-      <c r="AP110" s="8"/>
-      <c r="AQ110" s="8"/>
-      <c r="AR110" s="8"/>
-      <c r="AS110" s="8"/>
-      <c r="AT110" s="8"/>
-      <c r="AU110" s="8"/>
-      <c r="AV110" s="8"/>
-      <c r="AW110" s="8"/>
-      <c r="AX110" s="8"/>
-      <c r="AY110" s="8"/>
-      <c r="AZ110" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="6"/>
+      <c r="V110" s="6"/>
+      <c r="W110" s="6"/>
+      <c r="X110" s="6"/>
+      <c r="Y110" s="6"/>
+      <c r="Z110" s="6"/>
+      <c r="AA110" s="6"/>
+      <c r="AB110" s="6"/>
+      <c r="AC110" s="6"/>
+      <c r="AD110" s="6"/>
+      <c r="AE110" s="6"/>
+      <c r="AF110" s="6"/>
+      <c r="AG110" s="6"/>
+      <c r="AH110" s="6"/>
+      <c r="AI110" s="6"/>
+      <c r="AJ110" s="6"/>
+      <c r="AK110" s="6"/>
+      <c r="AL110" s="6"/>
+      <c r="AM110" s="6"/>
+      <c r="AN110" s="6"/>
+      <c r="AO110" s="6"/>
+      <c r="AP110" s="6"/>
+      <c r="AQ110" s="6"/>
+      <c r="AR110" s="6"/>
+      <c r="AS110" s="6"/>
+      <c r="AT110" s="6"/>
+      <c r="AU110" s="6"/>
+      <c r="AV110" s="6"/>
+      <c r="AW110" s="6"/>
+      <c r="AX110" s="6"/>
+      <c r="AY110" s="6"/>
+      <c r="AZ110" s="6"/>
       <c r="BA110" s="6"/>
       <c r="BB110" s="6"/>
       <c r="BC110" s="6"/>
@@ -12743,41 +12638,43 @@
       <c r="BK110" s="6"/>
       <c r="BL110" s="6"/>
       <c r="BM110" s="6"/>
-      <c r="BN110" s="6"/>
-      <c r="BO110" s="6"/>
-      <c r="BP110" s="6"/>
-      <c r="BQ110" s="6"/>
-      <c r="BR110" s="6"/>
-      <c r="BS110" s="6"/>
-      <c r="BT110" s="6"/>
-      <c r="BU110" s="6"/>
-      <c r="BV110" s="6"/>
-      <c r="BW110" s="6"/>
-      <c r="BX110" s="6"/>
-      <c r="BY110" s="6"/>
-      <c r="BZ110" s="6"/>
-      <c r="CA110" s="6"/>
-      <c r="CB110" s="6"/>
-      <c r="CC110" s="6"/>
-      <c r="CD110" s="6"/>
-      <c r="CE110" s="6"/>
-      <c r="CF110" s="6"/>
-      <c r="CG110" s="6"/>
-      <c r="CH110" s="6"/>
-      <c r="CI110" s="6"/>
-      <c r="CJ110" s="6"/>
-      <c r="CK110" s="6"/>
-      <c r="CL110" s="6"/>
-      <c r="CM110" s="6"/>
-      <c r="CN110" s="6"/>
-      <c r="CO110" s="6"/>
-      <c r="CP110" s="6"/>
-      <c r="CQ110" s="6"/>
-      <c r="CR110" s="6"/>
-      <c r="CS110" s="6"/>
+      <c r="BN110" s="8"/>
+      <c r="BO110" s="8"/>
+      <c r="BP110" s="8"/>
+      <c r="BQ110" s="8"/>
+      <c r="BR110" s="8"/>
+      <c r="BS110" s="8"/>
+      <c r="BT110" s="8"/>
+      <c r="BU110" s="8"/>
+      <c r="BV110" s="8"/>
+      <c r="BW110" s="8"/>
+      <c r="BX110" s="8"/>
+      <c r="BY110" s="8"/>
+      <c r="BZ110" s="8"/>
+      <c r="CA110" s="8"/>
+      <c r="CB110" s="8"/>
+      <c r="CC110" s="8"/>
+      <c r="CD110" s="8"/>
+      <c r="CE110" s="8"/>
+      <c r="CF110" s="8"/>
+      <c r="CG110" s="8"/>
+      <c r="CH110" s="8"/>
+      <c r="CI110" s="8"/>
+      <c r="CJ110" s="8"/>
+      <c r="CK110" s="8"/>
+      <c r="CL110" s="8"/>
+      <c r="CM110" s="8"/>
+      <c r="CN110" s="8"/>
+      <c r="CO110" s="8"/>
+      <c r="CP110" s="8"/>
+      <c r="CQ110" s="8"/>
+      <c r="CR110" s="8"/>
+      <c r="CS110" s="8"/>
     </row>
     <row r="111" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="3"/>
+      <c r="A111" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -12792,7 +12689,9 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
-      <c r="P111" s="8"/>
+      <c r="P111" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
       <c r="S111" s="8"/>
@@ -12828,7 +12727,9 @@
       <c r="AW111" s="8"/>
       <c r="AX111" s="8"/>
       <c r="AY111" s="8"/>
-      <c r="AZ111" s="6"/>
+      <c r="AZ111" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="BA111" s="6"/>
       <c r="BB111" s="6"/>
       <c r="BC111" s="6"/>
@@ -13272,108 +13173,108 @@
       <c r="CS115" s="6"/>
     </row>
     <row r="116" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8"/>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
+      <c r="U116" s="8"/>
+      <c r="V116" s="8"/>
+      <c r="W116" s="8"/>
+      <c r="X116" s="8"/>
+      <c r="Y116" s="8"/>
+      <c r="Z116" s="8"/>
+      <c r="AA116" s="8"/>
+      <c r="AB116" s="8"/>
+      <c r="AC116" s="8"/>
+      <c r="AD116" s="8"/>
+      <c r="AE116" s="8"/>
+      <c r="AF116" s="8"/>
+      <c r="AG116" s="8"/>
+      <c r="AH116" s="8"/>
+      <c r="AI116" s="8"/>
+      <c r="AJ116" s="8"/>
+      <c r="AK116" s="8"/>
+      <c r="AL116" s="8"/>
+      <c r="AM116" s="8"/>
+      <c r="AN116" s="8"/>
+      <c r="AO116" s="8"/>
+      <c r="AP116" s="8"/>
+      <c r="AQ116" s="8"/>
+      <c r="AR116" s="8"/>
+      <c r="AS116" s="8"/>
+      <c r="AT116" s="8"/>
+      <c r="AU116" s="8"/>
+      <c r="AV116" s="8"/>
+      <c r="AW116" s="8"/>
+      <c r="AX116" s="8"/>
+      <c r="AY116" s="8"/>
+      <c r="AZ116" s="6"/>
+      <c r="BA116" s="6"/>
+      <c r="BB116" s="6"/>
+      <c r="BC116" s="6"/>
+      <c r="BD116" s="6"/>
+      <c r="BE116" s="6"/>
+      <c r="BF116" s="6"/>
+      <c r="BG116" s="6"/>
+      <c r="BH116" s="6"/>
+      <c r="BI116" s="6"/>
+      <c r="BJ116" s="6"/>
+      <c r="BK116" s="6"/>
+      <c r="BL116" s="6"/>
+      <c r="BM116" s="6"/>
+      <c r="BN116" s="6"/>
+      <c r="BO116" s="6"/>
+      <c r="BP116" s="6"/>
+      <c r="BQ116" s="6"/>
+      <c r="BR116" s="6"/>
+      <c r="BS116" s="6"/>
+      <c r="BT116" s="6"/>
+      <c r="BU116" s="6"/>
+      <c r="BV116" s="6"/>
+      <c r="BW116" s="6"/>
+      <c r="BX116" s="6"/>
+      <c r="BY116" s="6"/>
+      <c r="BZ116" s="6"/>
+      <c r="CA116" s="6"/>
+      <c r="CB116" s="6"/>
+      <c r="CC116" s="6"/>
+      <c r="CD116" s="6"/>
+      <c r="CE116" s="6"/>
+      <c r="CF116" s="6"/>
+      <c r="CG116" s="6"/>
+      <c r="CH116" s="6"/>
+      <c r="CI116" s="6"/>
+      <c r="CJ116" s="6"/>
+      <c r="CK116" s="6"/>
+      <c r="CL116" s="6"/>
+      <c r="CM116" s="6"/>
+      <c r="CN116" s="6"/>
+      <c r="CO116" s="6"/>
+      <c r="CP116" s="6"/>
+      <c r="CQ116" s="6"/>
+      <c r="CR116" s="6"/>
+      <c r="CS116" s="6"/>
+    </row>
+    <row r="117" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="8"/>
-      <c r="O116" s="8"/>
-      <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="4"/>
-      <c r="S116" s="4"/>
-      <c r="T116" s="4"/>
-      <c r="U116" s="4"/>
-      <c r="V116" s="4"/>
-      <c r="W116" s="4"/>
-      <c r="X116" s="4"/>
-      <c r="Y116" s="4"/>
-      <c r="Z116" s="4"/>
-      <c r="AA116" s="4"/>
-      <c r="AB116" s="4"/>
-      <c r="AC116" s="4"/>
-      <c r="AD116" s="4"/>
-      <c r="AE116" s="4"/>
-      <c r="AF116" s="4"/>
-      <c r="AG116" s="4"/>
-      <c r="AH116" s="4"/>
-      <c r="AI116" s="4"/>
-      <c r="AJ116" s="4"/>
-      <c r="AK116" s="4"/>
-      <c r="AL116" s="4"/>
-      <c r="AM116" s="4"/>
-      <c r="AN116" s="4"/>
-      <c r="AO116" s="4"/>
-      <c r="AP116" s="4"/>
-      <c r="AQ116" s="4"/>
-      <c r="AR116" s="4"/>
-      <c r="AS116" s="4"/>
-      <c r="AT116" s="4"/>
-      <c r="AU116" s="4"/>
-      <c r="AV116" s="4"/>
-      <c r="AW116" s="4"/>
-      <c r="AX116" s="4"/>
-      <c r="AY116" s="4"/>
-      <c r="AZ116" s="4"/>
-      <c r="BA116" s="4"/>
-      <c r="BB116" s="4"/>
-      <c r="BC116" s="4"/>
-      <c r="BD116" s="4"/>
-      <c r="BE116" s="4"/>
-      <c r="BF116" s="4"/>
-      <c r="BG116" s="4"/>
-      <c r="BH116" s="4"/>
-      <c r="BI116" s="4"/>
-      <c r="BJ116" s="4"/>
-      <c r="BK116" s="4"/>
-      <c r="BL116" s="4"/>
-      <c r="BM116" s="4"/>
-      <c r="BN116" s="4"/>
-      <c r="BO116" s="4"/>
-      <c r="BP116" s="4"/>
-      <c r="BQ116" s="4"/>
-      <c r="BR116" s="4"/>
-      <c r="BS116" s="4"/>
-      <c r="BT116" s="4"/>
-      <c r="BU116" s="4"/>
-      <c r="BV116" s="4"/>
-      <c r="BW116" s="4"/>
-      <c r="BX116" s="4"/>
-      <c r="BY116" s="4"/>
-      <c r="BZ116" s="4"/>
-      <c r="CA116" s="4"/>
-      <c r="CB116" s="4"/>
-      <c r="CC116" s="4"/>
-      <c r="CD116" s="4"/>
-      <c r="CE116" s="4"/>
-      <c r="CF116" s="4"/>
-      <c r="CG116" s="4"/>
-      <c r="CH116" s="4"/>
-      <c r="CI116" s="4"/>
-      <c r="CJ116" s="4"/>
-      <c r="CK116" s="4"/>
-      <c r="CL116" s="4"/>
-      <c r="CM116" s="4"/>
-      <c r="CN116" s="4"/>
-      <c r="CO116" s="4"/>
-      <c r="CP116" s="4"/>
-      <c r="CQ116" s="4"/>
-      <c r="CR116" s="4"/>
-      <c r="CS116" s="4"/>
-    </row>
-    <row r="117" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -14066,204 +13967,204 @@
       <c r="CS123" s="4"/>
     </row>
     <row r="124" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
+      <c r="AA124" s="4"/>
+      <c r="AB124" s="4"/>
+      <c r="AC124" s="4"/>
+      <c r="AD124" s="4"/>
+      <c r="AE124" s="4"/>
+      <c r="AF124" s="4"/>
+      <c r="AG124" s="4"/>
+      <c r="AH124" s="4"/>
+      <c r="AI124" s="4"/>
+      <c r="AJ124" s="4"/>
+      <c r="AK124" s="4"/>
+      <c r="AL124" s="4"/>
+      <c r="AM124" s="4"/>
+      <c r="AN124" s="4"/>
+      <c r="AO124" s="4"/>
+      <c r="AP124" s="4"/>
+      <c r="AQ124" s="4"/>
+      <c r="AR124" s="4"/>
+      <c r="AS124" s="4"/>
+      <c r="AT124" s="4"/>
+      <c r="AU124" s="4"/>
+      <c r="AV124" s="4"/>
+      <c r="AW124" s="4"/>
+      <c r="AX124" s="4"/>
+      <c r="AY124" s="4"/>
+      <c r="AZ124" s="4"/>
+      <c r="BA124" s="4"/>
+      <c r="BB124" s="4"/>
+      <c r="BC124" s="4"/>
+      <c r="BD124" s="4"/>
+      <c r="BE124" s="4"/>
+      <c r="BF124" s="4"/>
+      <c r="BG124" s="4"/>
+      <c r="BH124" s="4"/>
+      <c r="BI124" s="4"/>
+      <c r="BJ124" s="4"/>
+      <c r="BK124" s="4"/>
+      <c r="BL124" s="4"/>
+      <c r="BM124" s="4"/>
+      <c r="BN124" s="4"/>
+      <c r="BO124" s="4"/>
+      <c r="BP124" s="4"/>
+      <c r="BQ124" s="4"/>
+      <c r="BR124" s="4"/>
+      <c r="BS124" s="4"/>
+      <c r="BT124" s="4"/>
+      <c r="BU124" s="4"/>
+      <c r="BV124" s="4"/>
+      <c r="BW124" s="4"/>
+      <c r="BX124" s="4"/>
+      <c r="BY124" s="4"/>
+      <c r="BZ124" s="4"/>
+      <c r="CA124" s="4"/>
+      <c r="CB124" s="4"/>
+      <c r="CC124" s="4"/>
+      <c r="CD124" s="4"/>
+      <c r="CE124" s="4"/>
+      <c r="CF124" s="4"/>
+      <c r="CG124" s="4"/>
+      <c r="CH124" s="4"/>
+      <c r="CI124" s="4"/>
+      <c r="CJ124" s="4"/>
+      <c r="CK124" s="4"/>
+      <c r="CL124" s="4"/>
+      <c r="CM124" s="4"/>
+      <c r="CN124" s="4"/>
+      <c r="CO124" s="4"/>
+      <c r="CP124" s="4"/>
+      <c r="CQ124" s="4"/>
+      <c r="CR124" s="4"/>
+      <c r="CS124" s="4"/>
+    </row>
+    <row r="125" spans="1:97" ht="5.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="2"/>
-      <c r="S124" s="2"/>
-      <c r="T124" s="2"/>
-      <c r="U124" s="2"/>
-      <c r="V124" s="2"/>
-      <c r="W124" s="2"/>
-      <c r="X124" s="2"/>
-      <c r="Y124" s="2"/>
-      <c r="Z124" s="2"/>
-      <c r="AA124" s="2"/>
-      <c r="AB124" s="2"/>
-      <c r="AC124" s="2"/>
-      <c r="AD124" s="2"/>
-      <c r="AE124" s="2"/>
-      <c r="AF124" s="2"/>
-      <c r="AG124" s="2"/>
-      <c r="AH124" s="2"/>
-      <c r="AI124" s="2"/>
-      <c r="AJ124" s="2"/>
-      <c r="AK124" s="2"/>
-      <c r="AL124" s="2"/>
-      <c r="AM124" s="2"/>
-      <c r="AN124" s="2"/>
-      <c r="AO124" s="2"/>
-      <c r="AP124" s="2"/>
-      <c r="AQ124" s="2"/>
-      <c r="AR124" s="2"/>
-      <c r="AS124" s="2"/>
-      <c r="AT124" s="2"/>
-      <c r="AU124" s="2"/>
-      <c r="AV124" s="2"/>
-      <c r="AW124" s="2"/>
-      <c r="AX124" s="2"/>
-      <c r="AY124" s="2"/>
-      <c r="AZ124" s="2"/>
-      <c r="BA124" s="2"/>
-      <c r="BB124" s="2"/>
-      <c r="BC124" s="2"/>
-      <c r="BD124" s="2"/>
-      <c r="BE124" s="2"/>
-      <c r="BF124" s="2"/>
-      <c r="BG124" s="2"/>
-      <c r="BH124" s="2"/>
-      <c r="BI124" s="2"/>
-      <c r="BJ124" s="2"/>
-      <c r="BK124" s="2"/>
-      <c r="BL124" s="2"/>
-      <c r="BM124" s="2"/>
-      <c r="BN124" s="2"/>
-      <c r="BO124" s="2"/>
-      <c r="BP124" s="2"/>
-      <c r="BQ124" s="2"/>
-      <c r="BR124" s="2"/>
-      <c r="BS124" s="2"/>
-      <c r="BT124" s="2"/>
-      <c r="BU124" s="2"/>
-      <c r="BV124" s="2"/>
-      <c r="BW124" s="2"/>
-      <c r="BX124" s="2"/>
-      <c r="BY124" s="2"/>
-      <c r="BZ124" s="2"/>
-      <c r="CA124" s="2"/>
-      <c r="CB124" s="2"/>
-      <c r="CC124" s="2"/>
-      <c r="CD124" s="2"/>
-      <c r="CE124" s="2"/>
-      <c r="CF124" s="2"/>
-      <c r="CG124" s="2"/>
-      <c r="CH124" s="2"/>
-      <c r="CI124" s="2"/>
-      <c r="CJ124" s="2"/>
-      <c r="CK124" s="2"/>
-      <c r="CL124" s="2"/>
-      <c r="CM124" s="2"/>
-      <c r="CN124" s="2"/>
-      <c r="CO124" s="2"/>
-      <c r="CP124" s="2"/>
-      <c r="CQ124" s="2"/>
-      <c r="CR124" s="2"/>
-      <c r="CS124" s="2"/>
-    </row>
-    <row r="125" spans="1:97" x14ac:dyDescent="0.15">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-      <c r="S125" s="1"/>
-      <c r="T125" s="1"/>
-      <c r="U125" s="1"/>
-      <c r="V125" s="1"/>
-      <c r="W125" s="1"/>
-      <c r="X125" s="1"/>
-      <c r="Y125" s="1"/>
-      <c r="Z125" s="1"/>
-      <c r="AA125" s="1"/>
-      <c r="AB125" s="1"/>
-      <c r="AC125" s="1"/>
-      <c r="AD125" s="1"/>
-      <c r="AE125" s="1"/>
-      <c r="AF125" s="1"/>
-      <c r="AG125" s="1"/>
-      <c r="AH125" s="1"/>
-      <c r="AI125" s="1"/>
-      <c r="AJ125" s="1"/>
-      <c r="AK125" s="1"/>
-      <c r="AL125" s="1"/>
-      <c r="AM125" s="1"/>
-      <c r="AN125" s="1"/>
-      <c r="AO125" s="1"/>
-      <c r="AP125" s="1"/>
-      <c r="AQ125" s="1"/>
-      <c r="AR125" s="1"/>
-      <c r="AS125" s="1"/>
-      <c r="AT125" s="1"/>
-      <c r="AU125" s="1"/>
-      <c r="AV125" s="1"/>
-      <c r="AW125" s="1"/>
-      <c r="AX125" s="1"/>
-      <c r="AY125" s="1"/>
-      <c r="AZ125" s="1"/>
-      <c r="BA125" s="1"/>
-      <c r="BB125" s="1"/>
-      <c r="BC125" s="1"/>
-      <c r="BD125" s="1"/>
-      <c r="BE125" s="1"/>
-      <c r="BF125" s="1"/>
-      <c r="BG125" s="1"/>
-      <c r="BH125" s="1"/>
-      <c r="BI125" s="1"/>
-      <c r="BJ125" s="1"/>
-      <c r="BK125" s="1"/>
-      <c r="BL125" s="1"/>
-      <c r="BM125" s="1"/>
-      <c r="BN125" s="1"/>
-      <c r="BO125" s="1"/>
-      <c r="BP125" s="1"/>
-      <c r="BQ125" s="1"/>
-      <c r="BR125" s="1"/>
-      <c r="BS125" s="1"/>
-      <c r="BT125" s="1"/>
-      <c r="BU125" s="1"/>
-      <c r="BV125" s="1"/>
-      <c r="BW125" s="1"/>
-      <c r="BX125" s="1"/>
-      <c r="BY125" s="1"/>
-      <c r="BZ125" s="1"/>
-      <c r="CA125" s="1"/>
-      <c r="CB125" s="1"/>
-      <c r="CC125" s="1"/>
-      <c r="CD125" s="1"/>
-      <c r="CE125" s="1"/>
-      <c r="CF125" s="1"/>
-      <c r="CG125" s="1"/>
-      <c r="CH125" s="1"/>
-      <c r="CI125" s="1"/>
-      <c r="CJ125" s="1"/>
-      <c r="CK125" s="1"/>
-      <c r="CL125" s="1"/>
-      <c r="CM125" s="1"/>
-      <c r="CN125" s="1"/>
-      <c r="CO125" s="1"/>
-      <c r="CP125" s="1"/>
-      <c r="CQ125" s="1"/>
-      <c r="CR125" s="1"/>
-      <c r="CS125" s="1"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="2"/>
+      <c r="Y125" s="2"/>
+      <c r="Z125" s="2"/>
+      <c r="AA125" s="2"/>
+      <c r="AB125" s="2"/>
+      <c r="AC125" s="2"/>
+      <c r="AD125" s="2"/>
+      <c r="AE125" s="2"/>
+      <c r="AF125" s="2"/>
+      <c r="AG125" s="2"/>
+      <c r="AH125" s="2"/>
+      <c r="AI125" s="2"/>
+      <c r="AJ125" s="2"/>
+      <c r="AK125" s="2"/>
+      <c r="AL125" s="2"/>
+      <c r="AM125" s="2"/>
+      <c r="AN125" s="2"/>
+      <c r="AO125" s="2"/>
+      <c r="AP125" s="2"/>
+      <c r="AQ125" s="2"/>
+      <c r="AR125" s="2"/>
+      <c r="AS125" s="2"/>
+      <c r="AT125" s="2"/>
+      <c r="AU125" s="2"/>
+      <c r="AV125" s="2"/>
+      <c r="AW125" s="2"/>
+      <c r="AX125" s="2"/>
+      <c r="AY125" s="2"/>
+      <c r="AZ125" s="2"/>
+      <c r="BA125" s="2"/>
+      <c r="BB125" s="2"/>
+      <c r="BC125" s="2"/>
+      <c r="BD125" s="2"/>
+      <c r="BE125" s="2"/>
+      <c r="BF125" s="2"/>
+      <c r="BG125" s="2"/>
+      <c r="BH125" s="2"/>
+      <c r="BI125" s="2"/>
+      <c r="BJ125" s="2"/>
+      <c r="BK125" s="2"/>
+      <c r="BL125" s="2"/>
+      <c r="BM125" s="2"/>
+      <c r="BN125" s="2"/>
+      <c r="BO125" s="2"/>
+      <c r="BP125" s="2"/>
+      <c r="BQ125" s="2"/>
+      <c r="BR125" s="2"/>
+      <c r="BS125" s="2"/>
+      <c r="BT125" s="2"/>
+      <c r="BU125" s="2"/>
+      <c r="BV125" s="2"/>
+      <c r="BW125" s="2"/>
+      <c r="BX125" s="2"/>
+      <c r="BY125" s="2"/>
+      <c r="BZ125" s="2"/>
+      <c r="CA125" s="2"/>
+      <c r="CB125" s="2"/>
+      <c r="CC125" s="2"/>
+      <c r="CD125" s="2"/>
+      <c r="CE125" s="2"/>
+      <c r="CF125" s="2"/>
+      <c r="CG125" s="2"/>
+      <c r="CH125" s="2"/>
+      <c r="CI125" s="2"/>
+      <c r="CJ125" s="2"/>
+      <c r="CK125" s="2"/>
+      <c r="CL125" s="2"/>
+      <c r="CM125" s="2"/>
+      <c r="CN125" s="2"/>
+      <c r="CO125" s="2"/>
+      <c r="CP125" s="2"/>
+      <c r="CQ125" s="2"/>
+      <c r="CR125" s="2"/>
+      <c r="CS125" s="2"/>
     </row>
     <row r="126" spans="1:97" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
@@ -14463,57 +14364,156 @@
       <c r="CR127" s="1"/>
       <c r="CS127" s="1"/>
     </row>
+    <row r="128" spans="1:97" x14ac:dyDescent="0.15">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
+      <c r="X128" s="1"/>
+      <c r="Y128" s="1"/>
+      <c r="Z128" s="1"/>
+      <c r="AA128" s="1"/>
+      <c r="AB128" s="1"/>
+      <c r="AC128" s="1"/>
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="1"/>
+      <c r="AF128" s="1"/>
+      <c r="AG128" s="1"/>
+      <c r="AH128" s="1"/>
+      <c r="AI128" s="1"/>
+      <c r="AJ128" s="1"/>
+      <c r="AK128" s="1"/>
+      <c r="AL128" s="1"/>
+      <c r="AM128" s="1"/>
+      <c r="AN128" s="1"/>
+      <c r="AO128" s="1"/>
+      <c r="AP128" s="1"/>
+      <c r="AQ128" s="1"/>
+      <c r="AR128" s="1"/>
+      <c r="AS128" s="1"/>
+      <c r="AT128" s="1"/>
+      <c r="AU128" s="1"/>
+      <c r="AV128" s="1"/>
+      <c r="AW128" s="1"/>
+      <c r="AX128" s="1"/>
+      <c r="AY128" s="1"/>
+      <c r="AZ128" s="1"/>
+      <c r="BA128" s="1"/>
+      <c r="BB128" s="1"/>
+      <c r="BC128" s="1"/>
+      <c r="BD128" s="1"/>
+      <c r="BE128" s="1"/>
+      <c r="BF128" s="1"/>
+      <c r="BG128" s="1"/>
+      <c r="BH128" s="1"/>
+      <c r="BI128" s="1"/>
+      <c r="BJ128" s="1"/>
+      <c r="BK128" s="1"/>
+      <c r="BL128" s="1"/>
+      <c r="BM128" s="1"/>
+      <c r="BN128" s="1"/>
+      <c r="BO128" s="1"/>
+      <c r="BP128" s="1"/>
+      <c r="BQ128" s="1"/>
+      <c r="BR128" s="1"/>
+      <c r="BS128" s="1"/>
+      <c r="BT128" s="1"/>
+      <c r="BU128" s="1"/>
+      <c r="BV128" s="1"/>
+      <c r="BW128" s="1"/>
+      <c r="BX128" s="1"/>
+      <c r="BY128" s="1"/>
+      <c r="BZ128" s="1"/>
+      <c r="CA128" s="1"/>
+      <c r="CB128" s="1"/>
+      <c r="CC128" s="1"/>
+      <c r="CD128" s="1"/>
+      <c r="CE128" s="1"/>
+      <c r="CF128" s="1"/>
+      <c r="CG128" s="1"/>
+      <c r="CH128" s="1"/>
+      <c r="CI128" s="1"/>
+      <c r="CJ128" s="1"/>
+      <c r="CK128" s="1"/>
+      <c r="CL128" s="1"/>
+      <c r="CM128" s="1"/>
+      <c r="CN128" s="1"/>
+      <c r="CO128" s="1"/>
+      <c r="CP128" s="1"/>
+      <c r="CQ128" s="1"/>
+      <c r="CR128" s="1"/>
+      <c r="CS128" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A124:CS127"/>
-    <mergeCell ref="A110:O115"/>
-    <mergeCell ref="P110:AY115"/>
-    <mergeCell ref="AZ110:BM115"/>
-    <mergeCell ref="BN110:CS115"/>
-    <mergeCell ref="A116:O123"/>
-    <mergeCell ref="P116:CS123"/>
-    <mergeCell ref="A89:CS91"/>
-    <mergeCell ref="A92:O103"/>
-    <mergeCell ref="P92:CS103"/>
-    <mergeCell ref="A104:O109"/>
-    <mergeCell ref="P104:AY109"/>
-    <mergeCell ref="AZ104:BM109"/>
-    <mergeCell ref="BN104:CS109"/>
-    <mergeCell ref="A74:CS76"/>
-    <mergeCell ref="A77:O88"/>
-    <mergeCell ref="P77:AG88"/>
-    <mergeCell ref="AH77:AV88"/>
-    <mergeCell ref="AW77:BM88"/>
-    <mergeCell ref="BN77:CB88"/>
-    <mergeCell ref="CC77:CS88"/>
-    <mergeCell ref="A52:O73"/>
-    <mergeCell ref="P52:Z56"/>
-    <mergeCell ref="AA52:CS56"/>
-    <mergeCell ref="P57:Z61"/>
-    <mergeCell ref="AA57:CS61"/>
-    <mergeCell ref="P62:Z66"/>
-    <mergeCell ref="AA62:CS66"/>
-    <mergeCell ref="P67:Z73"/>
-    <mergeCell ref="AA67:CS73"/>
-    <mergeCell ref="A22:O25"/>
-    <mergeCell ref="P22:CS25"/>
-    <mergeCell ref="A26:O31"/>
-    <mergeCell ref="P26:CS31"/>
-    <mergeCell ref="A32:O51"/>
-    <mergeCell ref="P32:CS51"/>
-    <mergeCell ref="A14:O17"/>
-    <mergeCell ref="P14:AR17"/>
-    <mergeCell ref="AS14:BF17"/>
-    <mergeCell ref="BG14:CS17"/>
-    <mergeCell ref="A18:O21"/>
-    <mergeCell ref="P18:AR21"/>
-    <mergeCell ref="AS18:BF21"/>
-    <mergeCell ref="BG18:CS21"/>
+    <mergeCell ref="A125:CS128"/>
+    <mergeCell ref="A111:O116"/>
+    <mergeCell ref="P111:AY116"/>
+    <mergeCell ref="AZ111:BM116"/>
+    <mergeCell ref="BN111:CS116"/>
+    <mergeCell ref="A117:O124"/>
+    <mergeCell ref="P117:CS124"/>
+    <mergeCell ref="A90:CS92"/>
+    <mergeCell ref="A93:O104"/>
+    <mergeCell ref="P93:CS104"/>
+    <mergeCell ref="A105:O110"/>
+    <mergeCell ref="P105:AY110"/>
+    <mergeCell ref="AZ105:BM110"/>
+    <mergeCell ref="BN105:CS110"/>
+    <mergeCell ref="A75:CS77"/>
+    <mergeCell ref="A78:O89"/>
+    <mergeCell ref="P78:AG89"/>
+    <mergeCell ref="AH78:AV89"/>
+    <mergeCell ref="AW78:BM89"/>
+    <mergeCell ref="BN78:CB89"/>
+    <mergeCell ref="CC78:CS89"/>
+    <mergeCell ref="A53:O74"/>
+    <mergeCell ref="P53:Z57"/>
+    <mergeCell ref="AA53:CS57"/>
+    <mergeCell ref="P58:Z62"/>
+    <mergeCell ref="AA58:CS62"/>
+    <mergeCell ref="P63:Z67"/>
+    <mergeCell ref="AA63:CS67"/>
+    <mergeCell ref="P68:Z74"/>
+    <mergeCell ref="AA68:CS74"/>
+    <mergeCell ref="A23:O26"/>
+    <mergeCell ref="P23:CS26"/>
+    <mergeCell ref="A27:O32"/>
+    <mergeCell ref="P27:CS32"/>
+    <mergeCell ref="A33:O52"/>
+    <mergeCell ref="P33:CS52"/>
+    <mergeCell ref="A15:O18"/>
+    <mergeCell ref="P15:AR18"/>
+    <mergeCell ref="AS15:BF18"/>
+    <mergeCell ref="BG15:CS18"/>
+    <mergeCell ref="A19:O22"/>
+    <mergeCell ref="P19:AR22"/>
+    <mergeCell ref="AS19:BF22"/>
+    <mergeCell ref="BG19:CS22"/>
     <mergeCell ref="A1:AA8"/>
     <mergeCell ref="AB1:CD4"/>
     <mergeCell ref="CE1:CS4"/>
     <mergeCell ref="AB5:CS8"/>
-    <mergeCell ref="A10:CS13"/>
+    <mergeCell ref="A11:CS14"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
